--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha7.xlsx
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha7</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha7</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H2">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I2">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J2">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N2">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O2">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P2">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q2">
-        <v>0.07790755537999999</v>
+        <v>0.04283442250574999</v>
       </c>
       <c r="R2">
-        <v>0.31163022152</v>
+        <v>0.171337690023</v>
       </c>
       <c r="S2">
-        <v>0.1737348513354534</v>
+        <v>0.08958526814769611</v>
       </c>
       <c r="T2">
-        <v>0.1518740053398633</v>
+        <v>0.08358665947481668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H3">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I3">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J3">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.309653</v>
       </c>
       <c r="O3">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P3">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q3">
-        <v>0.02348821222666667</v>
+        <v>0.01864322656216666</v>
       </c>
       <c r="R3">
-        <v>0.14092927336</v>
+        <v>0.111859359373</v>
       </c>
       <c r="S3">
-        <v>0.05237901560935246</v>
+        <v>0.03899103461674435</v>
       </c>
       <c r="T3">
-        <v>0.06868234123899324</v>
+        <v>0.05457030604140266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H4">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I4">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J4">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N4">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O4">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P4">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q4">
-        <v>0.003031630173333333</v>
+        <v>0.008752267361666666</v>
       </c>
       <c r="R4">
-        <v>0.01818978104</v>
+        <v>0.05251360417</v>
       </c>
       <c r="S4">
-        <v>0.006760574310143902</v>
+        <v>0.01830476921662676</v>
       </c>
       <c r="T4">
-        <v>0.008864849145006968</v>
+        <v>0.02561862920507376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H5">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I5">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J5">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N5">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O5">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P5">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q5">
-        <v>0.25443722538</v>
+        <v>0.255476137538</v>
       </c>
       <c r="R5">
-        <v>1.01774890152</v>
+        <v>1.021904550152</v>
       </c>
       <c r="S5">
-        <v>0.5673982877525573</v>
+        <v>0.5343108870816955</v>
       </c>
       <c r="T5">
-        <v>0.4960032481771617</v>
+        <v>0.49853355463036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H6">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I6">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J6">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N6">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O6">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P6">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q6">
-        <v>0.02598196641333333</v>
+        <v>0.02259646744566667</v>
       </c>
       <c r="R6">
-        <v>0.15589179848</v>
+        <v>0.135578804674</v>
       </c>
       <c r="S6">
-        <v>0.05794011954560714</v>
+        <v>0.04725896783221475</v>
       </c>
       <c r="T6">
-        <v>0.07597437668051371</v>
+        <v>0.0661417775433243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,19 +847,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H7">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I7">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J7">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N7">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O7">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P7">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q7">
-        <v>0.01287127123783333</v>
+        <v>0.0159676476465</v>
       </c>
       <c r="R7">
-        <v>0.077227627427</v>
+        <v>0.063870590586</v>
       </c>
       <c r="S7">
-        <v>0.02870310054135433</v>
+        <v>0.03339524411488468</v>
       </c>
       <c r="T7">
-        <v>0.03763713622839505</v>
+        <v>0.03115910635337009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,19 +909,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H8">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I8">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J8">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.309653</v>
       </c>
       <c r="O8">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P8">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q8">
-        <v>0.00388053699011111</v>
+        <v>0.006949748714333332</v>
       </c>
       <c r="R8">
-        <v>0.03492483291099999</v>
+        <v>0.041698492286</v>
       </c>
       <c r="S8">
-        <v>0.008653647438817653</v>
+        <v>0.01453492461697323</v>
       </c>
       <c r="T8">
-        <v>0.01702073128256796</v>
+        <v>0.02034250417905876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,49 +971,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H9">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I9">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J9">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N9">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O9">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P9">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q9">
-        <v>0.0005008620032222221</v>
+        <v>0.003262635823333334</v>
       </c>
       <c r="R9">
-        <v>0.004507758029</v>
+        <v>0.01957581494</v>
       </c>
       <c r="S9">
-        <v>0.001116928714358411</v>
+        <v>0.006823579915484105</v>
       </c>
       <c r="T9">
-        <v>0.002196870584720295</v>
+        <v>0.00955001189237557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H10">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I10">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J10">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N10">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O10">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P10">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q10">
-        <v>0.04203610965449999</v>
+        <v>0.09523539031600001</v>
       </c>
       <c r="R10">
-        <v>0.252216657927</v>
+        <v>0.380941561264</v>
       </c>
       <c r="S10">
-        <v>0.09374106562481349</v>
+        <v>0.1991783121965538</v>
       </c>
       <c r="T10">
-        <v>0.1229186112501264</v>
+        <v>0.1858413788402577</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,55 +1089,55 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.067331</v>
+      </c>
+      <c r="H11">
+        <v>0.134662</v>
+      </c>
+      <c r="I11">
+        <v>0.2715490731050226</v>
+      </c>
+      <c r="J11">
+        <v>0.2715490731050226</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.112787</v>
-      </c>
-      <c r="I11">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J11">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M11">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N11">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O11">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P11">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q11">
-        <v>0.004292535369222221</v>
+        <v>0.008423422311333334</v>
       </c>
       <c r="R11">
-        <v>0.038632818323</v>
+        <v>0.050540533868</v>
       </c>
       <c r="S11">
-        <v>0.009572409127542028</v>
+        <v>0.01761701226112679</v>
       </c>
       <c r="T11">
-        <v>0.01882783007265139</v>
+        <v>0.02465607183996041</v>
       </c>
     </row>
   </sheetData>
